--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2044419.769607725</v>
+        <v>-2046835.28910787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>170.1499920911098</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>235.070619873567</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.8601777505702</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>217.3496031852499</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.837139712981733</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.41805918135805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>105.4541577383849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>303.4667473399233</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>23.32897990642486</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>112.856619986382</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>367.5415703808786</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>255.7292869272886</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.86617416758092</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>78.52789638094468</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>252.7095467955504</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247756</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734035369</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.41670903610059</v>
+        <v>88.93215267004747</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>43.33214111914167</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>118.7766241650356</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.55648853245516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>25.01141625626346</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>12.06289619632178</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>280.4729526088724</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145384</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>935.8923016660913</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>566.9297847256796</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>395.0611058457707</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>395.0611058457707</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2009.863176255588</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1678.800288912017</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1326.031633641903</v>
+        <v>1552.523798623843</v>
       </c>
       <c r="X2" t="n">
-        <v>1326.031633641903</v>
+        <v>1179.058040362763</v>
       </c>
       <c r="Y2" t="n">
-        <v>935.8923016660913</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>721.2227824761496</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265798</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533936</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.109392681467</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1675.109392681467</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.843694074716</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1316.843694074716</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>905.857789285109</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.109392681467</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>683.8197173704941</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>683.8197173704941</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>394.4025473335336</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>394.4025473335336</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,13 +5027,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5048,19 +5048,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353827</v>
+        <v>788.7380053244402</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>619.8018223965333</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>469.6851829841976</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>321.7720894018045</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>174.8821419038941</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>174.8821419038941</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>174.8821419038941</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1197.79834077823</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>943.1138525723434</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>653.6966825353827</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>653.6966825353827</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.6966825353827</v>
+        <v>970.38647015468</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074193</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427179</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196071</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025899</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870725</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750061</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193579</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320224</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902947</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549546</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>970.5459590456828</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177759</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177759</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353828</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R16" t="n">
-        <v>1919.558911522784</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S16" t="n">
-        <v>1727.87302734961</v>
+        <v>1822.743169347944</v>
       </c>
       <c r="T16" t="n">
-        <v>1506.106411919136</v>
+        <v>1600.97655391747</v>
       </c>
       <c r="U16" t="n">
-        <v>1217.00354504478</v>
+        <v>1600.97655391747</v>
       </c>
       <c r="V16" t="n">
-        <v>962.3190568388932</v>
+        <v>1600.97655391747</v>
       </c>
       <c r="W16" t="n">
-        <v>672.9018868019325</v>
+        <v>1600.97655391747</v>
       </c>
       <c r="X16" t="n">
-        <v>444.9123359039152</v>
+        <v>1372.987003019452</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9123359039152</v>
+        <v>1152.194423875922</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5522,10 +5522,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1746.536620816741</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.536620816741</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.852132610854</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.434962573894</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>974.4454116758762</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>974.4454116758762</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5729,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.619281250059</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1931.079409280195</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1931.079409280195</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1709.312793849721</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838521</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.6864413838521</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,7 +5972,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5984,31 +5984,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.15366264131</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3082.932479700092</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>3962.897130029547</v>
+        <v>4074.966626751958</v>
       </c>
       <c r="P23" t="n">
-        <v>4357.671496386725</v>
+        <v>4469.740993109136</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,16 +6084,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1035.521664909012</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C25" t="n">
-        <v>866.5854819811052</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>716.4688425687694</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>568.5557489863763</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>421.6658014884659</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>253.9629648631849</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>107.7457780810427</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1481.351569195295</v>
       </c>
       <c r="V25" t="n">
-        <v>1734.57685067423</v>
+        <v>1481.351569195295</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.159680637269</v>
+        <v>1191.934399158335</v>
       </c>
       <c r="X25" t="n">
-        <v>1217.170129739252</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y25" t="n">
-        <v>1217.170129739252</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6209,7 +6209,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6230,16 +6230,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846823</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518747</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.23671557753</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
         <v>4260.55645335393</v>
@@ -6260,16 +6260,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C28" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6385,10 +6385,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,10 +6403,10 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
         <v>2141.769472604458</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811482</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160449</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819759</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
         <v>800.7468040499225</v>
@@ -6634,7 +6634,7 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O31" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P31" t="n">
         <v>2204.270866719035</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6853,7 +6853,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7126,7 +7126,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,46 +7172,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M38" t="n">
-        <v>2504.619866888352</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N38" t="n">
-        <v>3484.372139114998</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7309,16 +7309,16 @@
         <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7388,67 +7388,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7485,7 +7485,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7552,19 +7552,19 @@
         <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819756</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7597,10 +7597,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7625,43 +7625,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888353</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947135</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3554.371154826473</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.961311426849</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>126.3855966773243</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>246.4545694808542</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.539269126193403e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.50256772349232</v>
+        <v>1.01747575565625</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>314.5564971416979</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10115,25 +10115,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>344.7025836476821</v>
+        <v>146.0713065388572</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>103.7862464855134</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>23.80814351663639</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400264</v>
       </c>
       <c r="P41" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>248.8400772687139</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>184.5330495295732</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>240.3807909668428</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.82452402889341</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.50229141006253</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.51544363394674</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>146.4368842123003</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>100.7723251111336</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.2754916494821</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>63.92073641378387</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>84.2895242135163</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>5.738885596740431</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.876544027065393e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.0014606698</v>
+        <v>53560.00146066982</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982124</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982122</v>
-      </c>
       <c r="E2" t="n">
+        <v>59562.26803304745</v>
+      </c>
+      <c r="F2" t="n">
         <v>59562.26803304748</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59562.26803304749</v>
       </c>
       <c r="G2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="H2" t="n">
-        <v>59562.26803304749</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304747</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982116</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982117</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982118</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.414240614394657e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>214003.3284874669</v>
+        <v>214003.328487467</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122328.8823008209</v>
+        <v>122328.882300821</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231919007</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.653297409</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="M4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.653297409</v>
       </c>
-      <c r="N4" t="n">
-        <v>33605.65329740893</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740894</v>
-      </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26479,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741595.8381181051</v>
+        <v>-741863.1091607434</v>
       </c>
       <c r="C6" t="n">
-        <v>-204629.6321807161</v>
+        <v>-204629.6321807162</v>
       </c>
       <c r="D6" t="n">
         <v>-204629.6321807162</v>
       </c>
       <c r="E6" t="n">
-        <v>-782347.1565332628</v>
+        <v>-782414.3520234886</v>
       </c>
       <c r="F6" t="n">
-        <v>-54969.74253985609</v>
+        <v>-55036.93803008055</v>
       </c>
       <c r="G6" t="n">
-        <v>-54969.74253985608</v>
+        <v>-55036.93803008332</v>
       </c>
       <c r="H6" t="n">
-        <v>-54969.7425398561</v>
+        <v>-55036.93803008189</v>
       </c>
       <c r="I6" t="n">
-        <v>-54969.74253985612</v>
+        <v>-55036.9380300819</v>
       </c>
       <c r="J6" t="n">
-        <v>-286363.5200591568</v>
+        <v>-286363.5200591569</v>
       </c>
       <c r="K6" t="n">
-        <v>-72360.19157168985</v>
+        <v>-72360.19157168988</v>
       </c>
       <c r="L6" t="n">
         <v>-72360.19157168991</v>
       </c>
       <c r="M6" t="n">
-        <v>-202002.5064106348</v>
+        <v>-202002.5064106347</v>
       </c>
       <c r="N6" t="n">
-        <v>-72360.19157168988</v>
+        <v>-72360.19157168994</v>
       </c>
       <c r="O6" t="n">
-        <v>-109940.3008665639</v>
+        <v>-109940.300866564</v>
       </c>
       <c r="P6" t="n">
-        <v>-72360.19157168988</v>
+        <v>-72360.19157168991</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.681140416339317e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>16.15354763472232</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>168.8883354708037</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>218.1979657451026</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>145.1665941707367</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>259.8187340326227</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>78.46362273233848</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>143.917841192203</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>33.57734266018721</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>46.24259963991636</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>72.02297154284634</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>242.4157000743968</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681591</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284466</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.28113760038</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623182</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574981</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095011</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099046</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746403</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781682</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806935</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752244</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138788</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233465</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837915</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238309</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898482</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742009</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098815</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712201</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112282</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>665.3067125075511</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687119</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265642</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427814</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230579</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937643</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882179</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193707</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037187</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222432</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597674</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609561</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340046</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013282</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004582</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.578416613066</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701976</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789337</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36121,19 +36121,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183475</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36358,7 +36358,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,7 +36367,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.2968725272118</v>
+        <v>251.8117805593757</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>713.3184833610698</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>897.0044190605938</v>
+        <v>698.3731419517687</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,16 +37081,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>611.8392473737325</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>531.8611444048555</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37792,16 +37792,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P41" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>647.6020634880859</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
